--- a/data/financialTracker.xlsx
+++ b/data/financialTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailbip-my.sharepoint.com/personal/cristianfelice_cuffari_bip-group_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5515B9FA-5248-4981-A5A7-9F560CC07040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{5515B9FA-5248-4981-A5A7-9F560CC07040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B6197F0-E6E6-41E9-965D-7660663A5967}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="12" activeTab="15" xr2:uid="{5CCBF86A-9B6D-487E-A24C-C7E4E7B0AF5E}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -226,6 +226,15 @@
   <si>
     <t>connection_value</t>
   </si>
+  <si>
+    <t>installments_value</t>
+  </si>
+  <si>
+    <t>conncetion_value</t>
+  </si>
+  <si>
+    <t>subscription_value</t>
+  </si>
 </sst>
 </file>
 
@@ -234,10 +243,10 @@
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1]_);[Red]\(#,##0.00\ [$€-1]\)"/>
-    <numFmt numFmtId="167" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00\ [$€-410]"/>
-    <numFmt numFmtId="173" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-    <numFmt numFmtId="174" formatCode="#,##0.00\ [$€-410];[Red]\-#,##0.00\ [$€-410]"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ [$€-410]"/>
+    <numFmt numFmtId="168" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ [$€-410];[Red]\-#,##0.00\ [$€-410]"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -302,14 +311,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1147,9 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949B872D-7EF3-45B4-818D-063D1C634811}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E54"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1157,9 +1164,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="str">
-        <f>dates.dates!B1</f>
-        <v>date</v>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>25</v>
@@ -2050,9 +2056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5A8525-3365-47BF-B309-1AE72726AD01}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:E54"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2060,9 +2064,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="str">
-        <f>dates.dates!B1</f>
-        <v>date</v>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
@@ -2725,9 +2728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52863B2A-06C2-4E15-9A8C-BAF162B96541}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I54"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2736,9 +2737,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="str">
-        <f>dates.dates!B1</f>
-        <v>date</v>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>54</v>
@@ -4348,9 +4348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1215E650-4AD2-4E30-9036-FC9C1288D26B}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4358,9 +4356,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="str">
-        <f>dates.dates!B1</f>
-        <v>date</v>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>41</v>
@@ -7339,9 +7336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0C64B4-C2F6-4E80-BD97-7D694892AF56}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D54"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -7349,9 +7344,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="str">
-        <f>dates.dates!B1</f>
-        <v>date</v>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>49</v>
@@ -8326,9 +8320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88386CD6-EE24-4ED2-967C-E262507C6B5A}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D90"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8336,9 +8328,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="str">
-        <f>dates.dates!B1</f>
-        <v>date</v>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>55</v>
@@ -9639,8 +9630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D451C6D-95A2-4DBA-8BA7-A6E30EC765EF}">
   <dimension ref="A1:AI54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9663,13 +9654,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="str">
-        <f>dates.dates!B1</f>
-        <v>date</v>
-      </c>
-      <c r="B1" s="8" t="str">
-        <f>salaries.salaries!F1</f>
-        <v>salary_value</v>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>52</v>
@@ -9677,57 +9666,44 @@
       <c r="D1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11" t="str">
-        <f>savings.savings!F1</f>
-        <v>saving_value</v>
-      </c>
-      <c r="F1" s="8" t="str">
-        <f>needs.financials!E1</f>
-        <v>financial_value</v>
-      </c>
-      <c r="G1" s="8" t="str">
-        <f>needs.insurances!C1</f>
-        <v>insurance_value</v>
-      </c>
-      <c r="H1" s="8" t="str">
-        <f>needs.loans!F1</f>
-        <v>loan_value</v>
-      </c>
-      <c r="I1" s="8" t="str">
-        <f>needs.fines!D1</f>
-        <v>fines_value</v>
-      </c>
-      <c r="J1" s="8" t="str">
-        <f>needs.cdc!D1</f>
-        <v>cdc_value</v>
-      </c>
-      <c r="K1" s="8" t="str">
-        <f>needs.installments!E1</f>
-        <v>installment_value</v>
-      </c>
-      <c r="L1" s="8" t="str">
-        <f>needs.rents!B1</f>
-        <v>rent_value</v>
-      </c>
-      <c r="M1" s="8" t="str">
-        <f>needs.connections!D1</f>
-        <v>connection_value</v>
-      </c>
-      <c r="N1" s="8" t="str">
-        <f>wishes.holidays!E1</f>
-        <v>holidays_value</v>
-      </c>
-      <c r="O1" s="8" t="str">
-        <f>wishes.subscriptions!I1</f>
-        <v>subscriptions_value</v>
-      </c>
-      <c r="P1" s="8" t="str">
-        <f>wishes.parties!I1</f>
-        <v>parties_value</v>
-      </c>
-      <c r="Q1" s="8" t="str">
-        <f>wishes.beauty!D1</f>
-        <v>beauty_value</v>
+      <c r="E1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -9740,7 +9716,7 @@
         <v>1893</v>
       </c>
       <c r="D2" s="12">
-        <f>B2-SUM(E2:AC2)</f>
+        <f t="shared" ref="D2:D33" si="0">B2-SUM(E2:AC2)</f>
         <v>228.60099999999989</v>
       </c>
       <c r="E2" s="11">
@@ -9810,7 +9786,7 @@
         <v>421.18999999999994</v>
       </c>
       <c r="D3" s="12">
-        <f>B3-SUM(E3:AC3)</f>
+        <f t="shared" si="0"/>
         <v>72.707666669999981</v>
       </c>
       <c r="E3" s="11">
@@ -9880,7 +9856,7 @@
         <v>686.48666666999998</v>
       </c>
       <c r="D4" s="12">
-        <f>B4-SUM(E4:AC4)</f>
+        <f t="shared" si="0"/>
         <v>268.90100000000007</v>
       </c>
       <c r="E4" s="11">
@@ -9946,7 +9922,7 @@
         <v>1925.89</v>
       </c>
       <c r="D5" s="12">
-        <f>B5-SUM(E5:AC5)</f>
+        <f t="shared" si="0"/>
         <v>188.20099999999979</v>
       </c>
       <c r="E5" s="11">
@@ -10012,7 +9988,7 @@
         <v>3601.4143000000004</v>
       </c>
       <c r="D6" s="12">
-        <f>B6-SUM(E6:AC6)</f>
+        <f t="shared" si="0"/>
         <v>1269.5053000000003</v>
       </c>
       <c r="E6" s="11">
@@ -10078,7 +10054,7 @@
         <v>1925.89</v>
       </c>
       <c r="D7" s="12">
-        <f>B7-SUM(E7:AC7)</f>
+        <f t="shared" si="0"/>
         <v>336.98099999999999</v>
       </c>
       <c r="E7" s="11">
@@ -10144,7 +10120,7 @@
         <v>1925.89</v>
       </c>
       <c r="D8" s="12">
-        <f>B8-SUM(E8:AC8)</f>
+        <f t="shared" si="0"/>
         <v>408.98099999999999</v>
       </c>
       <c r="E8" s="11">
@@ -10210,7 +10186,7 @@
         <v>1925.89</v>
       </c>
       <c r="D9" s="12">
-        <f>B9-SUM(E9:AC9)</f>
+        <f t="shared" si="0"/>
         <v>408.98099999999999</v>
       </c>
       <c r="E9" s="11">
@@ -10276,7 +10252,7 @@
         <v>1925.89</v>
       </c>
       <c r="D10" s="12">
-        <f>B10-SUM(E10:AC10)</f>
+        <f t="shared" si="0"/>
         <v>408.98099999999999</v>
       </c>
       <c r="E10" s="11">
@@ -10342,7 +10318,7 @@
         <v>1925.89</v>
       </c>
       <c r="D11" s="12">
-        <f>B11-SUM(E11:AC11)</f>
+        <f t="shared" si="0"/>
         <v>408.98099999999999</v>
       </c>
       <c r="E11" s="11">
@@ -10408,7 +10384,7 @@
         <v>1925.89</v>
       </c>
       <c r="D12" s="12">
-        <f>B12-SUM(E12:AC12)</f>
+        <f t="shared" si="0"/>
         <v>408.98099999999999</v>
       </c>
       <c r="E12" s="11">
@@ -10474,7 +10450,7 @@
         <v>1925.89</v>
       </c>
       <c r="D13" s="12">
-        <f>B13-SUM(E13:AC13)</f>
+        <f t="shared" si="0"/>
         <v>804.98099999999999</v>
       </c>
       <c r="E13" s="11">
@@ -10540,7 +10516,7 @@
         <v>1925.89</v>
       </c>
       <c r="D14" s="12">
-        <f>B14-SUM(E14:AC14)</f>
+        <f t="shared" si="0"/>
         <v>408.98099999999999</v>
       </c>
       <c r="E14" s="11">
@@ -10606,7 +10582,7 @@
         <v>1925.89</v>
       </c>
       <c r="D15" s="12">
-        <f>B15-SUM(E15:AC15)</f>
+        <f t="shared" si="0"/>
         <v>408.98099999999999</v>
       </c>
       <c r="E15" s="11">
@@ -10672,7 +10648,7 @@
         <v>1925.89</v>
       </c>
       <c r="D16" s="12">
-        <f>B16-SUM(E16:AC16)</f>
+        <f t="shared" si="0"/>
         <v>408.98099999999999</v>
       </c>
       <c r="E16" s="11">
@@ -10738,7 +10714,7 @@
         <v>1925.89</v>
       </c>
       <c r="D17" s="12">
-        <f>B17-SUM(E17:AC17)</f>
+        <f t="shared" si="0"/>
         <v>408.98099999999999</v>
       </c>
       <c r="E17" s="11">
@@ -10804,7 +10780,7 @@
         <v>3601.4143000000004</v>
       </c>
       <c r="D18" s="12">
-        <f>B18-SUM(E18:AC18)</f>
+        <f t="shared" si="0"/>
         <v>2084.5053000000003</v>
       </c>
       <c r="E18" s="11">
@@ -10870,7 +10846,7 @@
         <v>1925.89</v>
       </c>
       <c r="D19" s="12">
-        <f>B19-SUM(E19:AC19)</f>
+        <f t="shared" si="0"/>
         <v>408.98099999999999</v>
       </c>
       <c r="E19" s="11">
@@ -10936,7 +10912,7 @@
         <v>1925.89</v>
       </c>
       <c r="D20" s="12">
-        <f>B20-SUM(E20:AC20)</f>
+        <f t="shared" si="0"/>
         <v>408.98099999999999</v>
       </c>
       <c r="E20" s="11">
@@ -11002,7 +10978,7 @@
         <v>1925.89</v>
       </c>
       <c r="D21" s="12">
-        <f>B21-SUM(E21:AC21)</f>
+        <f t="shared" si="0"/>
         <v>408.98099999999999</v>
       </c>
       <c r="E21" s="11">
@@ -11068,7 +11044,7 @@
         <v>1925.89</v>
       </c>
       <c r="D22" s="12">
-        <f>B22-SUM(E22:AC22)</f>
+        <f t="shared" si="0"/>
         <v>408.98099999999999</v>
       </c>
       <c r="E22" s="11">
@@ -11134,7 +11110,7 @@
         <v>1925.89</v>
       </c>
       <c r="D23" s="12">
-        <f>B23-SUM(E23:AC23)</f>
+        <f t="shared" si="0"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E23" s="11">
@@ -11200,7 +11176,7 @@
         <v>1925.89</v>
       </c>
       <c r="D24" s="12">
-        <f>B24-SUM(E24:AC24)</f>
+        <f t="shared" si="0"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E24" s="11">
@@ -11266,7 +11242,7 @@
         <v>1925.89</v>
       </c>
       <c r="D25" s="12">
-        <f>B25-SUM(E25:AC25)</f>
+        <f t="shared" si="0"/>
         <v>886.98099999999999</v>
       </c>
       <c r="E25" s="11">
@@ -11332,7 +11308,7 @@
         <v>1925.89</v>
       </c>
       <c r="D26" s="12">
-        <f>B26-SUM(E26:AC26)</f>
+        <f t="shared" si="0"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E26" s="11">
@@ -11398,7 +11374,7 @@
         <v>1925.89</v>
       </c>
       <c r="D27" s="12">
-        <f>B27-SUM(E27:AC27)</f>
+        <f t="shared" si="0"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E27" s="11">
@@ -11464,7 +11440,7 @@
         <v>1925.89</v>
       </c>
       <c r="D28" s="12">
-        <f>B28-SUM(E28:AC28)</f>
+        <f t="shared" si="0"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E28" s="11">
@@ -11530,7 +11506,7 @@
         <v>1925.89</v>
       </c>
       <c r="D29" s="12">
-        <f>B29-SUM(E29:AC29)</f>
+        <f t="shared" si="0"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E29" s="11">
@@ -11596,7 +11572,7 @@
         <v>3601.4143000000004</v>
       </c>
       <c r="D30" s="12">
-        <f>B30-SUM(E30:AC30)</f>
+        <f t="shared" si="0"/>
         <v>2166.5053000000003</v>
       </c>
       <c r="E30" s="11">
@@ -11662,7 +11638,7 @@
         <v>1925.89</v>
       </c>
       <c r="D31" s="12">
-        <f>B31-SUM(E31:AC31)</f>
+        <f t="shared" si="0"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E31" s="11">
@@ -11728,7 +11704,7 @@
         <v>1925.89</v>
       </c>
       <c r="D32" s="12">
-        <f>B32-SUM(E32:AC32)</f>
+        <f t="shared" si="0"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E32" s="11">
@@ -11794,7 +11770,7 @@
         <v>1925.89</v>
       </c>
       <c r="D33" s="12">
-        <f>B33-SUM(E33:AC33)</f>
+        <f t="shared" si="0"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E33" s="11">
@@ -11860,7 +11836,7 @@
         <v>1925.89</v>
       </c>
       <c r="D34" s="12">
-        <f>B34-SUM(E34:AC34)</f>
+        <f t="shared" ref="D34:D54" si="1">B34-SUM(E34:AC34)</f>
         <v>490.98099999999999</v>
       </c>
       <c r="E34" s="11">
@@ -11926,7 +11902,7 @@
         <v>1925.89</v>
       </c>
       <c r="D35" s="12">
-        <f>B35-SUM(E35:AC35)</f>
+        <f t="shared" si="1"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E35" s="11">
@@ -11992,7 +11968,7 @@
         <v>1925.89</v>
       </c>
       <c r="D36" s="12">
-        <f>B36-SUM(E36:AC36)</f>
+        <f t="shared" si="1"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E36" s="11">
@@ -12058,7 +12034,7 @@
         <v>1925.89</v>
       </c>
       <c r="D37" s="12">
-        <f>B37-SUM(E37:AC37)</f>
+        <f t="shared" si="1"/>
         <v>886.98099999999999</v>
       </c>
       <c r="E37" s="11">
@@ -12124,7 +12100,7 @@
         <v>1925.89</v>
       </c>
       <c r="D38" s="12">
-        <f>B38-SUM(E38:AC38)</f>
+        <f t="shared" si="1"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E38" s="11">
@@ -12190,7 +12166,7 @@
         <v>1925.89</v>
       </c>
       <c r="D39" s="12">
-        <f>B39-SUM(E39:AC39)</f>
+        <f t="shared" si="1"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E39" s="11">
@@ -12256,7 +12232,7 @@
         <v>1925.89</v>
       </c>
       <c r="D40" s="12">
-        <f>B40-SUM(E40:AC40)</f>
+        <f t="shared" si="1"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E40" s="11">
@@ -12322,7 +12298,7 @@
         <v>1925.89</v>
       </c>
       <c r="D41" s="12">
-        <f>B41-SUM(E41:AC41)</f>
+        <f t="shared" si="1"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E41" s="11">
@@ -12388,7 +12364,7 @@
         <v>3601.4143000000004</v>
       </c>
       <c r="D42" s="12">
-        <f>B42-SUM(E42:AC42)</f>
+        <f t="shared" si="1"/>
         <v>2166.5053000000003</v>
       </c>
       <c r="E42" s="11">
@@ -12454,7 +12430,7 @@
         <v>1925.89</v>
       </c>
       <c r="D43" s="12">
-        <f>B43-SUM(E43:AC43)</f>
+        <f t="shared" si="1"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E43" s="11">
@@ -12520,7 +12496,7 @@
         <v>1925.89</v>
       </c>
       <c r="D44" s="12">
-        <f>B44-SUM(E44:AC44)</f>
+        <f t="shared" si="1"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E44" s="11">
@@ -12586,7 +12562,7 @@
         <v>1925.89</v>
       </c>
       <c r="D45" s="12">
-        <f>B45-SUM(E45:AC45)</f>
+        <f t="shared" si="1"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E45" s="11">
@@ -12652,7 +12628,7 @@
         <v>1925.89</v>
       </c>
       <c r="D46" s="12">
-        <f>B46-SUM(E46:AC46)</f>
+        <f t="shared" si="1"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E46" s="11">
@@ -12718,7 +12694,7 @@
         <v>1925.89</v>
       </c>
       <c r="D47" s="12">
-        <f>B47-SUM(E47:AC47)</f>
+        <f t="shared" si="1"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E47" s="11">
@@ -12784,7 +12760,7 @@
         <v>1925.89</v>
       </c>
       <c r="D48" s="12">
-        <f>B48-SUM(E48:AC48)</f>
+        <f t="shared" si="1"/>
         <v>490.98099999999999</v>
       </c>
       <c r="E48" s="11">
@@ -12850,7 +12826,7 @@
         <v>1925.89</v>
       </c>
       <c r="D49" s="12">
-        <f>B49-SUM(E49:AC49)</f>
+        <f t="shared" si="1"/>
         <v>1201.9810000000002</v>
       </c>
       <c r="E49" s="11">
@@ -12916,7 +12892,7 @@
         <v>1925.89</v>
       </c>
       <c r="D50" s="12">
-        <f>B50-SUM(E50:AC50)</f>
+        <f t="shared" si="1"/>
         <v>805.98099999999999</v>
       </c>
       <c r="E50" s="11">
@@ -12982,7 +12958,7 @@
         <v>1925.89</v>
       </c>
       <c r="D51" s="12">
-        <f>B51-SUM(E51:AC51)</f>
+        <f t="shared" si="1"/>
         <v>805.98099999999999</v>
       </c>
       <c r="E51" s="11">
@@ -13048,7 +13024,7 @@
         <v>1925.89</v>
       </c>
       <c r="D52" s="12">
-        <f>B52-SUM(E52:AC52)</f>
+        <f t="shared" si="1"/>
         <v>805.98099999999999</v>
       </c>
       <c r="E52" s="11">
@@ -13114,7 +13090,7 @@
         <v>1925.89</v>
       </c>
       <c r="D53" s="12">
-        <f>B53-SUM(E53:AC53)</f>
+        <f t="shared" si="1"/>
         <v>805.98099999999999</v>
       </c>
       <c r="E53" s="11">
@@ -13180,7 +13156,7 @@
         <v>3601.4143000000004</v>
       </c>
       <c r="D54" s="12">
-        <f>B54-SUM(E54:AC54)</f>
+        <f t="shared" si="1"/>
         <v>2518.4353000000001</v>
       </c>
       <c r="E54" s="11">
@@ -13245,9 +13221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E254B93-7230-4EE7-920B-66A3432C2D55}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14472,21 +14446,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FC390E-F0F1-4A25-9629-0BE83207C763}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="str">
-        <f>dates.dates!B1</f>
-        <v>date</v>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -15699,9 +15672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302AB3AB-38C8-4437-8F3C-286086177218}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C54"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -16673,9 +16644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B7063D-6B5A-47CE-8630-9B96CAEF6D71}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C54"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -17444,9 +17413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD087AA-4C92-4A9D-B84F-E1FFC5E6D0E1}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18001,7 +17968,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19135,9 +19102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9CD571-3A8B-4F24-8A58-B79EFDE19A83}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -20003,9 +19968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD74CB2-6AC9-4E40-B18F-3F1D9B8A75A9}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/data/financialTracker.xlsx
+++ b/data/financialTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailbip-my.sharepoint.com/personal/cristianfelice_cuffari_bip-group_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{5515B9FA-5248-4981-A5A7-9F560CC07040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B6197F0-E6E6-41E9-965D-7660663A5967}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{5515B9FA-5248-4981-A5A7-9F560CC07040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C145ADE-E472-47BD-B9B7-00456050DC24}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="12" activeTab="15" xr2:uid="{5CCBF86A-9B6D-487E-A24C-C7E4E7B0AF5E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{5CCBF86A-9B6D-487E-A24C-C7E4E7B0AF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="dates.dates" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -235,6 +235,9 @@
   <si>
     <t>subscription_value</t>
   </si>
+  <si>
+    <t>thirteenth</t>
+  </si>
 </sst>
 </file>
 
@@ -336,6 +339,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9630,7 +9637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D451C6D-95A2-4DBA-8BA7-A6E30EC765EF}">
   <dimension ref="A1:AI54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -13221,7 +13228,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E254B93-7230-4EE7-920B-66A3432C2D55}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -13245,7 +13254,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>

--- a/data/financialTracker.xlsx
+++ b/data/financialTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailbip-my.sharepoint.com/personal/cristianfelice_cuffari_bip-group_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{5515B9FA-5248-4981-A5A7-9F560CC07040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C145ADE-E472-47BD-B9B7-00456050DC24}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{5515B9FA-5248-4981-A5A7-9F560CC07040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E43A6F5-E6C7-4694-B6E6-4136A871D5C1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{5CCBF86A-9B6D-487E-A24C-C7E4E7B0AF5E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="2" xr2:uid="{5CCBF86A-9B6D-487E-A24C-C7E4E7B0AF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="dates.dates" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>net_salary</t>
-  </si>
-  <si>
-    <t>13th</t>
   </si>
   <si>
     <t>salary_value</t>
@@ -1175,16 +1172,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2075,16 +2072,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2748,28 +2745,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" t="s">
         <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -4367,28 +4364,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -7355,13 +7352,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -8339,13 +8336,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -9665,52 +9662,52 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="H1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="P1" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -13228,8 +13225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E254B93-7230-4EE7-920B-66A3432C2D55}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13254,10 +13251,10 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -14455,7 +14452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FC390E-F0F1-4A25-9629-0BE83207C763}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -14480,10 +14479,10 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -15693,16 +15692,16 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -16665,10 +16664,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -17434,7 +17433,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -17990,19 +17989,19 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -19123,13 +19122,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -19989,13 +19988,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">

--- a/data/financialTracker.xlsx
+++ b/data/financialTracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccuffari\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBAFA66-4B97-4225-94C9-D85C887BE25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650422F4-6F86-4575-A35A-B91C7BF084C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{5CCBF86A-9B6D-487E-A24C-C7E4E7B0AF5E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="13" activeTab="16" xr2:uid="{5CCBF86A-9B6D-487E-A24C-C7E4E7B0AF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="dates.dates" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>loan_value</t>
-  </si>
-  <si>
-    <t>Tot Debito Silvia</t>
   </si>
   <si>
     <t>fine</t>
@@ -277,7 +274,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.00\ [$€-410];[Red]\-#,##0.00\ [$€-410]"/>
     <numFmt numFmtId="170" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +291,12 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -346,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -366,7 +369,6 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,20 +706,20 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.08984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -725,7 +727,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="4">
         <v>45901</v>
       </c>
     </row>
@@ -734,7 +736,7 @@
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="4">
         <v>45931</v>
       </c>
     </row>
@@ -743,7 +745,7 @@
         <f t="shared" ref="A4:A54" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="4">
         <v>45962</v>
       </c>
     </row>
@@ -752,7 +754,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="4">
         <v>45992</v>
       </c>
     </row>
@@ -761,7 +763,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="4">
         <v>46023</v>
       </c>
     </row>
@@ -770,7 +772,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="4">
         <v>46054</v>
       </c>
     </row>
@@ -779,7 +781,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="4">
         <v>46082</v>
       </c>
     </row>
@@ -788,7 +790,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="4">
         <v>46113</v>
       </c>
     </row>
@@ -797,7 +799,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="4">
         <v>46143</v>
       </c>
     </row>
@@ -806,7 +808,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="4">
         <v>46174</v>
       </c>
     </row>
@@ -815,7 +817,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="4">
         <v>46204</v>
       </c>
     </row>
@@ -824,7 +826,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="4">
         <v>46235</v>
       </c>
     </row>
@@ -833,7 +835,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="4">
         <v>46266</v>
       </c>
     </row>
@@ -842,7 +844,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="4">
         <v>46296</v>
       </c>
     </row>
@@ -851,7 +853,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="4">
         <v>46327</v>
       </c>
     </row>
@@ -860,7 +862,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="4">
         <v>46357</v>
       </c>
     </row>
@@ -869,7 +871,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="4">
         <v>46388</v>
       </c>
     </row>
@@ -878,7 +880,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="4">
         <v>46419</v>
       </c>
     </row>
@@ -887,7 +889,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="4">
         <v>46447</v>
       </c>
     </row>
@@ -896,7 +898,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="4">
         <v>46478</v>
       </c>
     </row>
@@ -905,7 +907,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="4">
         <v>46508</v>
       </c>
     </row>
@@ -914,7 +916,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="4">
         <v>46539</v>
       </c>
     </row>
@@ -923,7 +925,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="4">
         <v>46569</v>
       </c>
     </row>
@@ -932,7 +934,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="4">
         <v>46600</v>
       </c>
     </row>
@@ -941,7 +943,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="4">
         <v>46631</v>
       </c>
     </row>
@@ -950,7 +952,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="4">
         <v>46661</v>
       </c>
     </row>
@@ -959,7 +961,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="4">
         <v>46692</v>
       </c>
     </row>
@@ -968,7 +970,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="4">
         <v>46722</v>
       </c>
     </row>
@@ -977,7 +979,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="4">
         <v>46753</v>
       </c>
     </row>
@@ -986,7 +988,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="4">
         <v>46784</v>
       </c>
     </row>
@@ -995,7 +997,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="4">
         <v>46813</v>
       </c>
     </row>
@@ -1004,7 +1006,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="4">
         <v>46844</v>
       </c>
     </row>
@@ -1013,7 +1015,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="4">
         <v>46874</v>
       </c>
     </row>
@@ -1022,7 +1024,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="4">
         <v>46905</v>
       </c>
     </row>
@@ -1031,7 +1033,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="4">
         <v>46935</v>
       </c>
     </row>
@@ -1040,7 +1042,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="4">
         <v>46966</v>
       </c>
     </row>
@@ -1049,7 +1051,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="4">
         <v>46997</v>
       </c>
     </row>
@@ -1058,7 +1060,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="4">
         <v>47027</v>
       </c>
     </row>
@@ -1067,7 +1069,7 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="4">
         <v>47058</v>
       </c>
     </row>
@@ -1076,7 +1078,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="4">
         <v>47088</v>
       </c>
     </row>
@@ -1085,7 +1087,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="4">
         <v>47119</v>
       </c>
     </row>
@@ -1094,7 +1096,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="4">
         <v>47150</v>
       </c>
     </row>
@@ -1103,7 +1105,7 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="4">
         <v>47178</v>
       </c>
     </row>
@@ -1112,7 +1114,7 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="4">
         <v>47209</v>
       </c>
     </row>
@@ -1121,7 +1123,7 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="4">
         <v>47239</v>
       </c>
     </row>
@@ -1130,7 +1132,7 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="4">
         <v>47270</v>
       </c>
     </row>
@@ -1139,7 +1141,7 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="4">
         <v>47300</v>
       </c>
     </row>
@@ -1148,7 +1150,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="4">
         <v>47331</v>
       </c>
     </row>
@@ -1157,7 +1159,7 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="4">
         <v>47362</v>
       </c>
     </row>
@@ -1166,7 +1168,7 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="4">
         <v>47392</v>
       </c>
     </row>
@@ -1175,7 +1177,7 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="4">
         <v>47423</v>
       </c>
     </row>
@@ -1184,7 +1186,7 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="4">
         <v>47453</v>
       </c>
     </row>
@@ -1193,11 +1195,12 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="4">
         <v>47484</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1207,11 +1210,13 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -1219,18 +1224,17 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="B2" s="6">
@@ -1246,7 +1250,6 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="B3" s="6">
@@ -1262,7 +1265,6 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="B4" s="6">
@@ -1278,7 +1280,6 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="B5" s="6">
@@ -1294,7 +1295,6 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="B6" s="6">
@@ -1310,7 +1310,6 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="B7" s="6">
@@ -1326,7 +1325,6 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="B8" s="6">
@@ -1342,7 +1340,6 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="B9" s="6">
@@ -1358,7 +1355,6 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="B10" s="6">
@@ -1374,7 +1370,6 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="B11" s="6">
@@ -1390,7 +1385,6 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="B12" s="6">
@@ -1406,7 +1400,6 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="B13" s="6">
@@ -1422,7 +1415,6 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="B14" s="6">
@@ -1438,7 +1430,6 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="B15" s="6">
@@ -1454,7 +1445,6 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="B16" s="6">
@@ -1470,7 +1460,6 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="B17" s="6">
@@ -1486,7 +1475,6 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="B18" s="6">
@@ -1502,7 +1490,6 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="B19" s="6">
@@ -1518,7 +1505,6 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="B20" s="6">
@@ -1534,7 +1520,6 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="B21" s="6">
@@ -1550,7 +1535,6 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="B22" s="6">
@@ -1566,7 +1550,6 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="B23" s="6">
@@ -1582,7 +1565,6 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="B24" s="6">
@@ -1598,7 +1580,6 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="B25" s="6">
@@ -1614,7 +1595,6 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="B26" s="6">
@@ -1630,7 +1610,6 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="B27" s="6">
@@ -1646,7 +1625,6 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="B28" s="6">
@@ -1662,7 +1640,6 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="B29" s="6">
@@ -1678,7 +1655,6 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="B30" s="6">
@@ -1694,7 +1670,6 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="B31" s="6">
@@ -1710,7 +1685,6 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="B32" s="6">
@@ -1726,7 +1700,6 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="B33" s="6">
@@ -1742,7 +1715,6 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="B34" s="6">
@@ -1758,7 +1730,6 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="B35" s="6">
@@ -1774,7 +1745,6 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="B36" s="6">
@@ -1790,7 +1760,6 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="B37" s="6">
@@ -1806,7 +1775,6 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="B38" s="6">
@@ -1822,7 +1790,6 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="B39" s="6">
@@ -1838,7 +1805,6 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="B40" s="6">
@@ -1854,7 +1820,6 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="B41" s="6">
@@ -1870,7 +1835,6 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="B42" s="6">
@@ -1886,7 +1850,6 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="B43" s="6">
@@ -1902,7 +1865,6 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="B44" s="6">
@@ -1918,7 +1880,6 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="B45" s="6">
@@ -1934,7 +1895,6 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="B46" s="6">
@@ -1950,7 +1910,6 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="B47" s="6">
@@ -1966,7 +1925,6 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="B48" s="6">
@@ -1982,7 +1940,6 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="B49" s="6">
@@ -1998,7 +1955,6 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="B50" s="6">
@@ -2014,7 +1970,6 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="B51" s="6">
@@ -2030,7 +1985,6 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="B52" s="6">
@@ -2046,7 +2000,6 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="B53" s="6">
@@ -2062,7 +2015,6 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="B54" s="6">
@@ -2518,7 +2470,9 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2530,18 +2484,17 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="B2" s="8"/>
@@ -2553,7 +2506,6 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="C3" s="9">
@@ -2566,7 +2518,6 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="C4" s="9">
@@ -2579,7 +2530,6 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="C5" s="9">
@@ -2592,7 +2542,6 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="C6" s="9">
@@ -2605,7 +2554,6 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="C7" s="9">
@@ -2618,7 +2566,6 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="C8" s="9">
@@ -2631,7 +2578,6 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="C9" s="9">
@@ -2644,7 +2590,6 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="C10" s="9">
@@ -2657,7 +2602,6 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="C11" s="9">
@@ -2670,7 +2614,6 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="C12" s="9">
@@ -2683,7 +2626,6 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="C13" s="9">
@@ -2696,7 +2638,6 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="C14" s="9">
@@ -2709,7 +2650,6 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="C15" s="9">
@@ -2722,7 +2662,6 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="C16" s="9">
@@ -2735,7 +2674,6 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="C17" s="9">
@@ -2748,7 +2686,6 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="C18" s="9">
@@ -2761,7 +2698,6 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="C19" s="9">
@@ -2774,7 +2710,6 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="C20" s="9">
@@ -2787,7 +2722,6 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="C21" s="9">
@@ -2800,7 +2734,6 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="C22" s="9">
@@ -2813,7 +2746,6 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="D23">
@@ -2823,7 +2755,6 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="D24">
@@ -2833,7 +2764,6 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="D25">
@@ -2843,7 +2773,6 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="D26">
@@ -2853,7 +2782,6 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="D27">
@@ -2863,7 +2791,6 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="D28">
@@ -2873,7 +2800,6 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="D29">
@@ -2883,7 +2809,6 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="D30">
@@ -2893,7 +2818,6 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="D31">
@@ -2903,7 +2827,6 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="D32">
@@ -2913,7 +2836,6 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="D33">
@@ -2923,7 +2845,6 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="D34">
@@ -2933,7 +2854,6 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="D35">
@@ -2943,7 +2863,6 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="D36">
@@ -2953,7 +2872,6 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="D37">
@@ -2963,7 +2881,6 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="D38">
@@ -2973,7 +2890,6 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="D39">
@@ -2983,7 +2899,6 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="D40">
@@ -2993,7 +2908,6 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="D41">
@@ -3003,7 +2917,6 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="D42">
@@ -3013,7 +2926,6 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="D43">
@@ -3023,7 +2935,6 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="D44">
@@ -3033,7 +2944,6 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="D45">
@@ -3043,7 +2953,6 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="D46">
@@ -3053,7 +2962,6 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="D47">
@@ -3063,7 +2971,6 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="D48">
@@ -3073,7 +2980,6 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="D49">
@@ -3083,7 +2989,6 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="D50">
@@ -3093,7 +2998,6 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="D51">
@@ -3103,7 +3007,6 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="D52">
@@ -3113,7 +3016,6 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="D53">
@@ -3123,7 +3025,6 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="D54">
@@ -3141,11 +3042,13 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3153,21 +3056,20 @@
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="B2" s="5">
@@ -3186,7 +3088,6 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="B3" s="5">
@@ -3205,7 +3106,6 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="B4" s="5">
@@ -3224,7 +3124,6 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="B5" s="5">
@@ -3243,7 +3142,6 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="B6" s="5">
@@ -3260,7 +3158,6 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="B7" s="5">
@@ -3277,7 +3174,6 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="B8" s="5">
@@ -3294,7 +3190,6 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="B9" s="5">
@@ -3311,7 +3206,6 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="B10" s="5">
@@ -3328,7 +3222,6 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="B11" s="5">
@@ -3345,7 +3238,6 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="B12" s="5">
@@ -3362,7 +3254,6 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="B13" s="5">
@@ -3379,7 +3270,6 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="B14" s="5">
@@ -3396,7 +3286,6 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="B15" s="5">
@@ -3413,7 +3302,6 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="B16" s="5">
@@ -3430,7 +3318,6 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="B17" s="5">
@@ -3447,7 +3334,6 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="B18" s="5">
@@ -3464,7 +3350,6 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="B19" s="5">
@@ -3481,7 +3366,6 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="B20" s="5">
@@ -3498,7 +3382,6 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="B21" s="5">
@@ -3515,7 +3398,6 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="B22" s="5">
@@ -3532,7 +3414,6 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="B23" s="5">
@@ -3549,7 +3430,6 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="B24" s="5">
@@ -3566,7 +3446,6 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="B25" s="5">
@@ -3583,7 +3462,6 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="B26" s="5">
@@ -3600,7 +3478,6 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="B27" s="5">
@@ -3617,7 +3494,6 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="B28" s="5">
@@ -3634,7 +3510,6 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="B29" s="5">
@@ -3651,7 +3526,6 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="B30" s="5">
@@ -3668,7 +3542,6 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="B31" s="5">
@@ -3685,7 +3558,6 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="B32" s="5">
@@ -3702,7 +3574,6 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="B33" s="5">
@@ -3719,7 +3590,6 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="B34" s="5">
@@ -3736,7 +3606,6 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="B35" s="5">
@@ -3753,7 +3622,6 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="B36" s="5">
@@ -3770,7 +3638,6 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="B37" s="5">
@@ -3787,7 +3654,6 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="B38" s="5">
@@ -3804,7 +3670,6 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="B39" s="5">
@@ -3821,7 +3686,6 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="B40" s="5">
@@ -3838,7 +3702,6 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="B41" s="5">
@@ -3855,7 +3718,6 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="B42" s="5">
@@ -3872,7 +3734,6 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="B43" s="5">
@@ -3889,7 +3750,6 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="B44" s="5">
@@ -3906,7 +3766,6 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="B45" s="5">
@@ -3923,7 +3782,6 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="B46" s="5">
@@ -3940,7 +3798,6 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="B47" s="5">
@@ -3957,7 +3814,6 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="B48" s="5">
@@ -3974,7 +3830,6 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="E49" s="2">
@@ -3984,7 +3839,6 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="E50" s="2">
@@ -3994,7 +3848,6 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="E51" s="2">
@@ -4004,7 +3857,6 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="E52" s="2">
@@ -4014,7 +3866,6 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="E53" s="2">
@@ -4024,7 +3875,6 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="E54" s="2">
@@ -4042,11 +3892,13 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -4054,21 +3906,20 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="B2" s="12"/>
@@ -4081,7 +3932,6 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="B3" s="12">
@@ -4096,7 +3946,6 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="B4" s="12"/>
@@ -4109,7 +3958,6 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="B5" s="12"/>
@@ -4122,7 +3970,6 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="B6" s="12"/>
@@ -4137,7 +3984,6 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="B7" s="12"/>
@@ -4150,7 +3996,6 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="B8" s="12"/>
@@ -4163,7 +4008,6 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="B9" s="12"/>
@@ -4176,7 +4020,6 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="B10" s="12"/>
@@ -4189,7 +4032,6 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="B11" s="12"/>
@@ -4202,7 +4044,6 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="B12" s="12"/>
@@ -4215,7 +4056,6 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="B13" s="12"/>
@@ -4228,7 +4068,6 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="B14" s="12"/>
@@ -4241,7 +4080,6 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="B15" s="12"/>
@@ -4254,7 +4092,6 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="B16" s="12"/>
@@ -4267,7 +4104,6 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="B17" s="12"/>
@@ -4280,7 +4116,6 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="B18" s="12"/>
@@ -4293,7 +4128,6 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="B19" s="12"/>
@@ -4306,7 +4140,6 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="B20" s="12"/>
@@ -4319,7 +4152,6 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="B21" s="12"/>
@@ -4332,7 +4164,6 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="B22" s="12"/>
@@ -4345,7 +4176,6 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="B23" s="12"/>
@@ -4358,7 +4188,6 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="B24" s="12"/>
@@ -4371,7 +4200,6 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="B25" s="12"/>
@@ -4384,7 +4212,6 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="B26" s="12"/>
@@ -4397,7 +4224,6 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="B27" s="12"/>
@@ -4410,7 +4236,6 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="B28" s="12"/>
@@ -4423,7 +4248,6 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="B29" s="12"/>
@@ -4436,7 +4260,6 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="B30" s="12"/>
@@ -4449,7 +4272,6 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="B31" s="12"/>
@@ -4462,7 +4284,6 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="B32" s="12"/>
@@ -4475,7 +4296,6 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="B33" s="12"/>
@@ -4488,7 +4308,6 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="B34" s="12"/>
@@ -4501,7 +4320,6 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="B35" s="12"/>
@@ -4514,7 +4332,6 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="B36" s="12"/>
@@ -4527,7 +4344,6 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="E37">
@@ -4537,7 +4353,6 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="E38">
@@ -4547,7 +4362,6 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="E39">
@@ -4557,7 +4371,6 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="E40">
@@ -4567,7 +4380,6 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="E41">
@@ -4577,7 +4389,6 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="E42">
@@ -4587,7 +4398,6 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="E43">
@@ -4597,7 +4407,6 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="E44">
@@ -4607,7 +4416,6 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="E45">
@@ -4617,7 +4425,6 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="E46">
@@ -4627,7 +4434,6 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="E47">
@@ -4637,7 +4443,6 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="E48">
@@ -4647,7 +4452,6 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="E49">
@@ -4657,7 +4461,6 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="E50">
@@ -4667,7 +4470,6 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="E51">
@@ -4677,7 +4479,6 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="E52">
@@ -4687,7 +4488,6 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="E53">
@@ -4697,7 +4497,6 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="E54">
@@ -4716,12 +4515,12 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.54296875" bestFit="1" customWidth="1"/>
@@ -4737,33 +4536,32 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" t="s">
         <v>51</v>
-      </c>
-      <c r="I1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="B2" s="5">
@@ -4789,7 +4587,6 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="B3" s="5">
@@ -4821,7 +4618,6 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="B4" s="5">
@@ -4851,7 +4647,6 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="B5" s="5">
@@ -4881,7 +4676,6 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="B6" s="5">
@@ -4911,7 +4705,6 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="B7" s="5">
@@ -4941,7 +4734,6 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="B8" s="5">
@@ -4971,7 +4763,6 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="B9" s="5">
@@ -5001,7 +4792,6 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="B10" s="5">
@@ -5031,7 +4821,6 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="B11" s="5">
@@ -5061,7 +4850,6 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="B12" s="5">
@@ -5091,7 +4879,6 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="B13" s="5">
@@ -5121,7 +4908,6 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="B14" s="5">
@@ -5151,7 +4937,6 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="B15" s="5">
@@ -5181,7 +4966,6 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="B16" s="5">
@@ -5211,7 +4995,6 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="B17" s="5">
@@ -5241,7 +5024,6 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="B18" s="5">
@@ -5271,7 +5053,6 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="B19" s="5">
@@ -5301,7 +5082,6 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="B20" s="5">
@@ -5331,7 +5111,6 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="B21" s="5">
@@ -5361,7 +5140,6 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="B22" s="5">
@@ -5391,7 +5169,6 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="B23" s="5">
@@ -5421,7 +5198,6 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="B24" s="5">
@@ -5451,7 +5227,6 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="B25" s="5">
@@ -5481,7 +5256,6 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="B26" s="5">
@@ -5511,7 +5285,6 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="B27" s="5">
@@ -5541,7 +5314,6 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="B28" s="5">
@@ -5571,7 +5343,6 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="B29" s="5">
@@ -5601,7 +5372,6 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="B30" s="5">
@@ -5631,7 +5401,6 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="B31" s="5">
@@ -5661,7 +5430,6 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="B32" s="5">
@@ -5691,7 +5459,6 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="B33" s="5">
@@ -5721,7 +5488,6 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="B34" s="5">
@@ -5751,7 +5517,6 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="B35" s="5">
@@ -5781,7 +5546,6 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="B36" s="5">
@@ -5811,7 +5575,6 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="B37" s="5">
@@ -5841,7 +5604,6 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="B38" s="5">
@@ -5871,7 +5633,6 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="B39" s="5">
@@ -5901,7 +5662,6 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="B40" s="5">
@@ -5931,7 +5691,6 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="B41" s="5">
@@ -5961,7 +5720,6 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="B42" s="5">
@@ -5991,7 +5749,6 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="B43" s="5">
@@ -6021,7 +5778,6 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="B44" s="5">
@@ -6051,7 +5807,6 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="B45" s="5">
@@ -6081,7 +5836,6 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="B46" s="5">
@@ -6111,7 +5865,6 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="B47" s="5">
@@ -6141,7 +5894,6 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="B48" s="5">
@@ -6171,7 +5923,6 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="B49" s="5">
@@ -6201,7 +5952,6 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="B50" s="5">
@@ -6231,7 +5981,6 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="B51" s="5">
@@ -6261,7 +6010,6 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="B52" s="5">
@@ -6291,7 +6039,6 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="B53" s="5">
@@ -6321,7 +6068,6 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="B54" s="5">
@@ -6344,12 +6090,12 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6358,33 +6104,32 @@
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="B2" s="5">
@@ -6418,7 +6163,6 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="B3" s="5">
@@ -6452,7 +6196,6 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="B4" s="5">
@@ -6486,7 +6229,6 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="B5" s="5">
@@ -6520,7 +6262,6 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="B6" s="5">
@@ -6554,7 +6295,6 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="B7" s="5">
@@ -6588,7 +6328,6 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="B8" s="5">
@@ -6622,7 +6361,6 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="B9" s="5">
@@ -6656,7 +6394,6 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="B10" s="5">
@@ -6690,7 +6427,6 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="B11" s="5">
@@ -6724,7 +6460,6 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="B12" s="5">
@@ -6758,7 +6493,6 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="B13" s="5">
@@ -6792,7 +6526,6 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="B14" s="5">
@@ -6826,7 +6559,6 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="B15" s="5">
@@ -6860,7 +6592,6 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="B16" s="5">
@@ -6894,7 +6625,6 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="B17" s="5">
@@ -6928,7 +6658,6 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="B18" s="5">
@@ -6962,7 +6691,6 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="B19" s="5">
@@ -6996,7 +6724,6 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="B20" s="5">
@@ -7030,7 +6757,6 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="B21" s="5">
@@ -7064,7 +6790,6 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="B22" s="5">
@@ -7098,7 +6823,6 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="B23" s="5">
@@ -7132,7 +6856,6 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="B24" s="5">
@@ -7166,7 +6889,6 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="B25" s="5">
@@ -7200,7 +6922,6 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="B26" s="5">
@@ -7234,7 +6955,6 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="B27" s="5">
@@ -7268,7 +6988,6 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="B28" s="5">
@@ -7302,7 +7021,6 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="B29" s="5">
@@ -7336,7 +7054,6 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="B30" s="5">
@@ -7370,7 +7087,6 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="B31" s="5">
@@ -7404,7 +7120,6 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="B32" s="5">
@@ -7438,7 +7153,6 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="B33" s="5">
@@ -7472,7 +7186,6 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="B34" s="5">
@@ -7506,7 +7219,6 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="B35" s="5">
@@ -7540,7 +7252,6 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="B36" s="5">
@@ -7574,7 +7285,6 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="B37" s="5">
@@ -7608,7 +7318,6 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="B38" s="5">
@@ -7642,7 +7351,6 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="B39" s="5">
@@ -7676,7 +7384,6 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="B40" s="5">
@@ -7710,7 +7417,6 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="B41" s="5">
@@ -7744,7 +7450,6 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="B42" s="5">
@@ -7778,7 +7483,6 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="B43" s="5">
@@ -7812,7 +7516,6 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="B44" s="5">
@@ -7846,7 +7549,6 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="B45" s="5">
@@ -7880,7 +7582,6 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="B46" s="5">
@@ -7914,7 +7615,6 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="B47" s="5">
@@ -7948,7 +7648,6 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="B48" s="5">
@@ -7982,7 +7681,6 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="B49" s="5">
@@ -8016,7 +7714,6 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="B50" s="5">
@@ -8050,7 +7747,6 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="B51" s="5">
@@ -8084,7 +7780,6 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="B52" s="5">
@@ -8118,7 +7813,6 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="B53" s="5">
@@ -8152,7 +7846,6 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="B54" s="5">
@@ -9695,12 +9388,12 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9709,18 +9402,17 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="B2" s="2">
@@ -9738,7 +9430,6 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="B3" s="2">
@@ -9756,7 +9447,6 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="B4" s="2">
@@ -9774,7 +9464,6 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="B5" s="2">
@@ -9792,7 +9481,6 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="B6" s="2">
@@ -9810,7 +9498,6 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="B7" s="2">
@@ -9828,7 +9515,6 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="B8" s="2">
@@ -9846,7 +9532,6 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="B9" s="2">
@@ -9864,7 +9549,6 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="B10" s="2">
@@ -9882,7 +9566,6 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="B11" s="2">
@@ -9900,7 +9583,6 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="B12" s="2">
@@ -9918,7 +9600,6 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="B13" s="2">
@@ -9936,7 +9617,6 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="B14" s="2">
@@ -9954,7 +9634,6 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="B15" s="2">
@@ -9972,7 +9651,6 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="B16" s="2">
@@ -9990,7 +9668,6 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="B17" s="2">
@@ -10008,7 +9685,6 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="B18" s="2">
@@ -10026,7 +9702,6 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="B19" s="2">
@@ -10044,7 +9719,6 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="B20" s="2">
@@ -10062,7 +9736,6 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="B21" s="2">
@@ -10080,7 +9753,6 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="B22" s="2">
@@ -10098,7 +9770,6 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="B23" s="2">
@@ -10116,7 +9787,6 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="B24" s="2">
@@ -10134,7 +9804,6 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="B25" s="2">
@@ -10152,7 +9821,6 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="B26" s="2">
@@ -10170,7 +9838,6 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="B27" s="2">
@@ -10188,7 +9855,6 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="B28" s="2">
@@ -10206,7 +9872,6 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="B29" s="2">
@@ -10224,7 +9889,6 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="B30" s="2">
@@ -10242,7 +9906,6 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="B31" s="2">
@@ -10260,7 +9923,6 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="B32" s="2">
@@ -10278,7 +9940,6 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="B33" s="2">
@@ -10296,7 +9957,6 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="B34" s="2">
@@ -10314,7 +9974,6 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="B35" s="2">
@@ -10332,7 +9991,6 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="B36" s="2">
@@ -10350,7 +10008,6 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="B37" s="2">
@@ -10368,7 +10025,6 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="B38" s="2">
@@ -10386,7 +10042,6 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="B39" s="2">
@@ -10404,7 +10059,6 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="B40" s="2">
@@ -10422,7 +10076,6 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="B41" s="2">
@@ -10440,7 +10093,6 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="B42" s="2">
@@ -10458,7 +10110,6 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="B43" s="2">
@@ -10476,7 +10127,6 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="B44" s="2">
@@ -10494,7 +10144,6 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="B45" s="2">
@@ -10512,7 +10161,6 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="B46" s="2">
@@ -10530,7 +10178,6 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="B47" s="2">
@@ -10548,7 +10195,6 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="B48" s="2">
@@ -10566,7 +10212,6 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="B49" s="2">
@@ -10584,7 +10229,6 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="B50" s="2">
@@ -10602,7 +10246,6 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="B51" s="2">
@@ -10620,7 +10263,6 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="B52" s="2">
@@ -10638,7 +10280,6 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="B53" s="2">
@@ -10656,7 +10297,6 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="B54" s="2">
@@ -10682,7 +10322,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -10719,13 +10359,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="F1" s="16">
         <v>0.5</v>
@@ -10746,31 +10386,31 @@
         <v>26</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="S1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -15123,7 +14763,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15156,7 +14796,6 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="B2" s="2">
@@ -15178,7 +14817,6 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="B3" s="2">
@@ -15200,7 +14838,6 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="B4" s="2">
@@ -15222,7 +14859,6 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="B5" s="2">
@@ -15244,7 +14880,6 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="B6" s="2">
@@ -15270,7 +14905,6 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="B7" s="2">
@@ -15292,7 +14926,6 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="B8" s="2">
@@ -15314,7 +14947,6 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="B9" s="2">
@@ -15336,7 +14968,6 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="B10" s="2">
@@ -15358,7 +14989,6 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="B11" s="2">
@@ -15380,7 +15010,6 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="B12" s="2">
@@ -15402,7 +15031,6 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="B13" s="2">
@@ -15424,7 +15052,6 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="B14" s="2">
@@ -15446,7 +15073,6 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="B15" s="2">
@@ -15468,7 +15094,6 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="B16" s="2">
@@ -15490,7 +15115,6 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="B17" s="2">
@@ -15512,7 +15136,6 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="B18" s="2">
@@ -15538,7 +15161,6 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="B19" s="2">
@@ -15560,7 +15182,6 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="B20" s="2">
@@ -15582,7 +15203,6 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="B21" s="2">
@@ -15604,7 +15224,6 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="B22" s="2">
@@ -15626,7 +15245,6 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="B23" s="2">
@@ -15648,7 +15266,6 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="B24" s="2">
@@ -15670,7 +15287,6 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="B25" s="2">
@@ -15692,7 +15308,6 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="B26" s="2">
@@ -15714,7 +15329,6 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="B27" s="2">
@@ -15736,7 +15350,6 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="B28" s="2">
@@ -15758,7 +15371,6 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="B29" s="2">
@@ -15780,7 +15392,6 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="B30" s="2">
@@ -15806,7 +15417,6 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="B31" s="2">
@@ -15828,7 +15438,6 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="B32" s="2">
@@ -15850,7 +15459,6 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="B33" s="2">
@@ -15872,7 +15480,6 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="B34" s="2">
@@ -15894,7 +15501,6 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="B35" s="2">
@@ -15916,7 +15522,6 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="B36" s="2">
@@ -15938,7 +15543,6 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="B37" s="2">
@@ -15960,7 +15564,6 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="B38" s="2">
@@ -15982,7 +15585,6 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="B39" s="2">
@@ -16004,7 +15606,6 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="B40" s="2">
@@ -16026,7 +15627,6 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="B41" s="2">
@@ -16048,7 +15648,6 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="B42" s="2">
@@ -16074,7 +15673,6 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="B43" s="2">
@@ -16096,7 +15694,6 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="B44" s="2">
@@ -16118,7 +15715,6 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="B45" s="2">
@@ -16140,7 +15736,6 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="B46" s="2">
@@ -16162,7 +15757,6 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="B47" s="2">
@@ -16184,7 +15778,6 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="B48" s="2">
@@ -16206,7 +15799,6 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="B49" s="2">
@@ -16228,7 +15820,6 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="B50" s="2">
@@ -16250,7 +15841,6 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="B51" s="2">
@@ -16272,7 +15862,6 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="B52" s="2">
@@ -16294,7 +15883,6 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="B53" s="2">
@@ -16316,7 +15904,6 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="B54" s="2">
@@ -16351,7 +15938,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16385,7 +15972,6 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="B2" s="2">
@@ -16407,7 +15993,6 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="B3" s="2">
@@ -16429,7 +16014,6 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="B4" s="2">
@@ -16451,7 +16035,6 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="B5" s="2">
@@ -16473,7 +16056,6 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="B6" s="2">
@@ -16499,7 +16081,6 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="B7" s="2">
@@ -16521,7 +16102,6 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="B8" s="2">
@@ -16543,7 +16123,6 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="B9" s="2">
@@ -16565,7 +16144,6 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="B10" s="2">
@@ -16587,7 +16165,6 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="B11" s="2">
@@ -16609,7 +16186,6 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="B12" s="2">
@@ -16631,7 +16207,6 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="B13" s="2">
@@ -16653,7 +16228,6 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="B14" s="2">
@@ -16675,7 +16249,6 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="B15" s="2">
@@ -16697,7 +16270,6 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="B16" s="2">
@@ -16719,7 +16291,6 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="B17" s="2">
@@ -16741,7 +16312,6 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="B18" s="2">
@@ -16767,7 +16337,6 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="B19" s="2">
@@ -16789,7 +16358,6 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="B20" s="2">
@@ -16811,7 +16379,6 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="B21" s="2">
@@ -16833,7 +16400,6 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="B22" s="2">
@@ -16855,7 +16421,6 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="B23" s="2">
@@ -16877,7 +16442,6 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="B24" s="2">
@@ -16899,7 +16463,6 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="B25" s="2">
@@ -16921,7 +16484,6 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="B26" s="2">
@@ -16943,7 +16505,6 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="B27" s="2">
@@ -16965,7 +16526,6 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="B28" s="2">
@@ -16987,7 +16547,6 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="B29" s="2">
@@ -17009,7 +16568,6 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="B30" s="2">
@@ -17035,7 +16593,6 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="B31" s="2">
@@ -17057,7 +16614,6 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="B32" s="2">
@@ -17079,7 +16635,6 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="B33" s="2">
@@ -17101,7 +16656,6 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="B34" s="2">
@@ -17123,7 +16677,6 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="B35" s="2">
@@ -17145,7 +16698,6 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="B36" s="2">
@@ -17167,7 +16719,6 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="B37" s="2">
@@ -17189,7 +16740,6 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="B38" s="2">
@@ -17211,7 +16761,6 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="B39" s="2">
@@ -17233,7 +16782,6 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="B40" s="2">
@@ -17255,7 +16803,6 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="B41" s="2">
@@ -17277,7 +16824,6 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="B42" s="2">
@@ -17303,7 +16849,6 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="B43" s="2">
@@ -17325,7 +16870,6 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="B44" s="2">
@@ -17347,7 +16891,6 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="B45" s="2">
@@ -17369,7 +16912,6 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="B46" s="2">
@@ -17391,7 +16933,6 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="B47" s="2">
@@ -17413,7 +16954,6 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="B48" s="2">
@@ -17435,7 +16975,6 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="B49" s="2">
@@ -17457,7 +16996,6 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="B50" s="2">
@@ -17479,7 +17017,6 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="B51" s="2">
@@ -17501,7 +17038,6 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="B52" s="2">
@@ -17523,7 +17059,6 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="B53" s="2">
@@ -17545,7 +17080,6 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="B54" s="2">
@@ -17580,7 +17114,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17619,7 +17153,6 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="B2" s="15">
@@ -17653,7 +17186,6 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="B3" s="15">
@@ -17687,7 +17219,6 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="B4" s="15">
@@ -17721,7 +17252,6 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="B5" s="15">
@@ -17755,7 +17285,6 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="B6" s="15">
@@ -17789,7 +17318,6 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="B7" s="15">
@@ -17823,7 +17351,6 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="B8" s="15">
@@ -17857,7 +17384,6 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="B9" s="15">
@@ -17891,7 +17417,6 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="B10" s="15">
@@ -17925,7 +17450,6 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="B11" s="15">
@@ -17959,7 +17483,6 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="B12" s="15">
@@ -17993,7 +17516,6 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="B13" s="15">
@@ -18027,7 +17549,6 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="B14" s="15">
@@ -18061,7 +17582,6 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="B15" s="15">
@@ -18095,7 +17615,6 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="B16" s="15">
@@ -18129,7 +17648,6 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="B17" s="15">
@@ -18163,7 +17681,6 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="B18" s="15">
@@ -18197,7 +17714,6 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="B19" s="15">
@@ -18231,7 +17747,6 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="B20" s="15">
@@ -18265,7 +17780,6 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="B21" s="15">
@@ -18299,7 +17813,6 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="B22" s="15">
@@ -18333,7 +17846,6 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="B23" s="15">
@@ -18367,7 +17879,6 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="B24" s="15">
@@ -18401,7 +17912,6 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="B25" s="15">
@@ -18435,7 +17945,6 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="B26" s="15">
@@ -18469,7 +17978,6 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="B27" s="15">
@@ -18503,7 +18011,6 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="B28" s="15">
@@ -18537,7 +18044,6 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="B29" s="15">
@@ -18571,7 +18077,6 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="B30" s="15">
@@ -18605,7 +18110,6 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="B31" s="15">
@@ -18639,7 +18143,6 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="B32" s="15">
@@ -18673,7 +18176,6 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="B33" s="15">
@@ -18707,7 +18209,6 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="B34" s="15">
@@ -18741,7 +18242,6 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="B35" s="15">
@@ -18775,7 +18275,6 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="B36" s="15">
@@ -18809,7 +18308,6 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="B37" s="15">
@@ -18843,7 +18341,6 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="B38" s="15">
@@ -18877,7 +18374,6 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="B39" s="15">
@@ -18911,7 +18407,6 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="B40" s="15">
@@ -18945,7 +18440,6 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="B41" s="15">
@@ -18979,7 +18473,6 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="B42" s="15">
@@ -19013,7 +18506,6 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="B43" s="15">
@@ -19047,7 +18539,6 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="B44" s="15">
@@ -19081,7 +18572,6 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="B45" s="15">
@@ -19115,7 +18605,6 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="B46" s="15">
@@ -19149,7 +18638,6 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="B47" s="15">
@@ -19183,7 +18671,6 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="B48" s="15">
@@ -19217,7 +18704,6 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="B49" s="15">
@@ -19251,7 +18737,6 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="B50" s="15">
@@ -19285,7 +18770,6 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="B51" s="15">
@@ -19319,7 +18803,6 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="B52" s="15">
@@ -19353,7 +18836,6 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="B53" s="15">
@@ -19387,7 +18869,6 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="B54" s="15">
@@ -19429,7 +18910,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19455,7 +18938,6 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="B2" s="2">
@@ -19477,7 +18959,6 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="B3" s="2">
@@ -19499,7 +18980,6 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="B4" s="2">
@@ -19518,7 +18998,6 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="B5" s="2">
@@ -19536,7 +19015,6 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="B6" s="2">
@@ -19554,7 +19032,6 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="B7" s="2">
@@ -19572,7 +19049,6 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="B8" s="2">
@@ -19590,7 +19066,6 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="B9" s="2">
@@ -19608,7 +19083,6 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="B10" s="2">
@@ -19626,7 +19100,6 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="B11" s="2">
@@ -19644,7 +19117,6 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="B12" s="2">
@@ -19662,7 +19134,6 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="B13" s="2">
@@ -19680,7 +19151,6 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="B14" s="2">
@@ -19698,7 +19168,6 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="B15" s="2">
@@ -19716,7 +19185,6 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="B16" s="2">
@@ -19734,7 +19202,6 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="B17" s="2">
@@ -19752,7 +19219,6 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="B18" s="2">
@@ -19770,7 +19236,6 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="B19" s="2">
@@ -19788,7 +19253,6 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="B20" s="2">
@@ -19806,7 +19270,6 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="B21" s="2">
@@ -19824,7 +19287,6 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="B22" s="2">
@@ -19842,7 +19304,6 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="B23" s="2">
@@ -19860,7 +19321,6 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="B24" s="2">
@@ -19878,7 +19338,6 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="B25" s="2">
@@ -19896,7 +19355,6 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="B26" s="2">
@@ -19914,7 +19372,6 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="B27" s="2">
@@ -19932,7 +19389,6 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="B28" s="2">
@@ -19950,7 +19406,6 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="B29" s="2">
@@ -19968,7 +19423,6 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="B30" s="2">
@@ -19986,7 +19440,6 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="B31" s="2">
@@ -20004,7 +19457,6 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="B32" s="2">
@@ -20022,7 +19474,6 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="B33" s="2">
@@ -20040,7 +19491,6 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="B34" s="2">
@@ -20058,7 +19508,6 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="B35" s="2">
@@ -20076,7 +19525,6 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="B36" s="2">
@@ -20094,7 +19542,6 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="B37" s="2">
@@ -20112,7 +19559,6 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="B38" s="2">
@@ -20130,7 +19576,6 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="B39" s="2">
@@ -20148,7 +19593,6 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="B40" s="2">
@@ -20166,7 +19610,6 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="B41" s="2">
@@ -20184,7 +19627,6 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="B42" s="2">
@@ -20202,7 +19644,6 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="B43" s="2">
@@ -20220,7 +19661,6 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="B44" s="2">
@@ -20238,7 +19678,6 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="B45" s="2">
@@ -20256,7 +19695,6 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="B46" s="2">
@@ -20274,7 +19712,6 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="B47" s="2">
@@ -20292,7 +19729,6 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="B48" s="2">
@@ -20310,7 +19746,6 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="C49" s="2">
@@ -20324,7 +19759,6 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="C50" s="2">
@@ -20338,7 +19772,6 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="C51" s="2">
@@ -20352,7 +19785,6 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="C52" s="2">
@@ -20366,7 +19798,6 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="C53" s="2">
@@ -20380,7 +19811,6 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="C54" s="2">
@@ -20402,8 +19832,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20424,7 +19854,6 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="B2" s="2">
@@ -20438,7 +19867,6 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="B3" s="2">
@@ -20452,7 +19880,6 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="B4" s="2">
@@ -20466,7 +19893,6 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="B5" s="2">
@@ -20480,7 +19906,6 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="B6" s="2">
@@ -20494,7 +19919,6 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="B7" s="2">
@@ -20508,7 +19932,6 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="B8" s="2">
@@ -20522,7 +19945,6 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="B9" s="2">
@@ -20536,7 +19958,6 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="B10" s="2">
@@ -20550,7 +19971,6 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="B11" s="2">
@@ -20564,7 +19984,6 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="B12" s="2">
@@ -20578,7 +19997,6 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="B13" s="2">
@@ -20592,7 +20010,6 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="B14" s="2">
@@ -20606,7 +20023,6 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="B15" s="2">
@@ -20620,7 +20036,6 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="B16" s="2">
@@ -20634,7 +20049,6 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="B17" s="2">
@@ -20648,7 +20062,6 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="B18" s="2">
@@ -20662,7 +20075,6 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="B19" s="2">
@@ -20676,7 +20088,6 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="B20" s="2">
@@ -20690,7 +20101,6 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="B21" s="2">
@@ -20704,7 +20114,6 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="B22" s="2">
@@ -20718,7 +20127,6 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="B23" s="2">
@@ -20732,7 +20140,6 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="B24" s="2">
@@ -20746,7 +20153,6 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="B25" s="2">
@@ -20760,7 +20166,6 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="B26" s="2">
@@ -20774,7 +20179,6 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="B27" s="2">
@@ -20788,7 +20192,6 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="B28" s="2">
@@ -20802,7 +20205,6 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="B29" s="2">
@@ -20816,7 +20218,6 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="B30" s="2">
@@ -20830,7 +20231,6 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="B31" s="2">
@@ -20844,7 +20244,6 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="B32" s="2">
@@ -20858,7 +20257,6 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="B33" s="2">
@@ -20872,7 +20270,6 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="B34" s="2">
@@ -20886,7 +20283,6 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="B35" s="2">
@@ -20900,7 +20296,6 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="B36" s="2">
@@ -20914,7 +20309,6 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="B37" s="2">
@@ -20928,7 +20322,6 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="B38" s="2">
@@ -20942,7 +20335,6 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="B39" s="2">
@@ -20956,7 +20348,6 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="B40" s="2">
@@ -20970,7 +20361,6 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="B41" s="2">
@@ -20984,7 +20374,6 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="B42" s="2">
@@ -20998,7 +20387,6 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="B43" s="2">
@@ -21012,7 +20400,6 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="B44" s="2">
@@ -21026,7 +20413,6 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="B45" s="2">
@@ -21040,7 +20426,6 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="B46" s="2">
@@ -21054,7 +20439,6 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="B47" s="2">
@@ -21068,7 +20452,6 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="B48" s="2">
@@ -21082,7 +20465,6 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="B49" s="2">
@@ -21096,7 +20478,6 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="B50" s="2">
@@ -21110,7 +20491,6 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="B51" s="2">
@@ -21124,7 +20504,6 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="B52" s="2">
@@ -21138,7 +20517,6 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="B53" s="2">
@@ -21152,7 +20530,6 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="B54" s="2">
@@ -21174,7 +20551,9 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -21191,7 +20570,6 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="B2" s="2">
@@ -21201,7 +20579,6 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="B3" s="2">
@@ -21211,7 +20588,6 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="B4" s="2">
@@ -21221,7 +20597,6 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="B5" s="2">
@@ -21231,7 +20606,6 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="B6" s="2">
@@ -21241,7 +20615,6 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="B7" s="2">
@@ -21251,7 +20624,6 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="B8" s="2">
@@ -21261,7 +20633,6 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="B9" s="2">
@@ -21271,7 +20642,6 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="B10" s="2">
@@ -21281,7 +20651,6 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="B11" s="2">
@@ -21291,7 +20660,6 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="B12" s="2">
@@ -21301,7 +20669,6 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="B13" s="2">
@@ -21311,7 +20678,6 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="B14" s="2">
@@ -21321,7 +20687,6 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="B15" s="2">
@@ -21331,7 +20696,6 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="B16" s="2">
@@ -21341,7 +20705,6 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="B17" s="2">
@@ -21351,7 +20714,6 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="B18" s="2">
@@ -21361,7 +20723,6 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="B19" s="2">
@@ -21371,7 +20732,6 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="B20" s="2">
@@ -21381,7 +20741,6 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="B21" s="2">
@@ -21391,7 +20750,6 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="B22" s="2">
@@ -21401,7 +20759,6 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="B23" s="2">
@@ -21411,7 +20768,6 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="B24" s="2">
@@ -21421,7 +20777,6 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="B25" s="2">
@@ -21431,7 +20786,6 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="B26" s="2">
@@ -21441,7 +20795,6 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="B27" s="2">
@@ -21451,7 +20804,6 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="B28" s="2">
@@ -21461,7 +20813,6 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="B29" s="2">
@@ -21471,7 +20822,6 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="B30" s="2">
@@ -21481,7 +20831,6 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="B31" s="2">
@@ -21491,7 +20840,6 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="B32" s="2">
@@ -21501,7 +20849,6 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="B33" s="2">
@@ -21511,7 +20858,6 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="B34" s="2">
@@ -21521,7 +20867,6 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="B35" s="2">
@@ -21531,7 +20876,6 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="B36" s="2">
@@ -21541,7 +20885,6 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="B37" s="2">
@@ -21551,7 +20894,6 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="B38" s="2">
@@ -21561,7 +20903,6 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="B39" s="2">
@@ -21571,7 +20912,6 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="B40" s="2">
@@ -21581,7 +20921,6 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="B41" s="2">
@@ -21591,7 +20930,6 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="B42" s="2">
@@ -21601,7 +20939,6 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="B43" s="2">
@@ -21611,7 +20948,6 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="B44" s="2">
@@ -21621,7 +20957,6 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="B45" s="2">
@@ -21631,7 +20966,6 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="B46" s="2">
@@ -21641,7 +20975,6 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="B47" s="2">
@@ -21651,7 +20984,6 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="B48" s="2">
@@ -21661,7 +20993,6 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="B49" s="2">
@@ -21671,7 +21002,6 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="B50" s="2">
@@ -21681,7 +21011,6 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="B51" s="2">
@@ -21691,7 +21020,6 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="B52" s="2">
@@ -21701,7 +21029,6 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="B53" s="2">
@@ -21711,7 +21038,6 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="B54" s="2">
@@ -21729,8 +21055,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A61" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21761,7 +21087,6 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="B2" s="5">
@@ -21786,7 +21111,6 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="B3" s="5">
@@ -21805,13 +21129,9 @@
         <f t="shared" ref="F3:F54" si="0">SUM(B3:E3)</f>
         <v>45</v>
       </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="B4" s="5">
@@ -21830,14 +21150,10 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H4" s="2">
-        <f>SUM(B2:B7)</f>
-        <v>702.67</v>
-      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="B5" s="5">
@@ -21859,7 +21175,6 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="B6" s="5">
@@ -21881,7 +21196,6 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="B7" s="5">
@@ -21903,7 +21217,6 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="B8" s="5">
@@ -21925,7 +21238,6 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="B9" s="5">
@@ -21947,7 +21259,6 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="B10" s="5">
@@ -21969,7 +21280,6 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="B11" s="5">
@@ -21991,7 +21301,6 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="B12" s="5">
@@ -22013,7 +21322,6 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="B13" s="5">
@@ -22035,7 +21343,6 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="B14" s="5">
@@ -22057,7 +21364,6 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="B15" s="5">
@@ -22079,7 +21385,6 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="B16" s="5">
@@ -22101,7 +21406,6 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="B17" s="5">
@@ -22123,7 +21427,6 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="B18" s="5">
@@ -22145,7 +21448,6 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="B19" s="5">
@@ -22167,7 +21469,6 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="B20" s="5">
@@ -22189,7 +21490,6 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="B21" s="5">
@@ -22211,7 +21511,6 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="B22" s="5">
@@ -22233,7 +21532,6 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="B23" s="5">
@@ -22255,7 +21553,6 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="B24" s="5">
@@ -22277,7 +21574,6 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="B25" s="5">
@@ -22299,7 +21595,6 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="B26" s="5">
@@ -22321,7 +21616,6 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="B27" s="5">
@@ -22343,7 +21637,6 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="B28" s="5">
@@ -22365,7 +21658,6 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="B29" s="5">
@@ -22387,7 +21679,6 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="B30" s="5">
@@ -22409,7 +21700,6 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="B31" s="5">
@@ -22431,7 +21721,6 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="B32" s="5">
@@ -22453,7 +21742,6 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="B33" s="5">
@@ -22475,7 +21763,6 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="B34" s="5">
@@ -22497,7 +21784,6 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="B35" s="5">
@@ -22519,7 +21805,6 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="B36" s="5">
@@ -22541,7 +21826,6 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="B37" s="5">
@@ -22563,7 +21847,6 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="B38" s="5">
@@ -22585,7 +21868,6 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="B39" s="5">
@@ -22607,7 +21889,6 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="B40" s="5">
@@ -22629,7 +21910,6 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="B41" s="5">
@@ -22651,7 +21931,6 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="B42" s="5">
@@ -22673,7 +21952,6 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="B43" s="5">
@@ -22695,7 +21973,6 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="B44" s="5">
@@ -22717,7 +21994,6 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="B45" s="5">
@@ -22739,7 +22015,6 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="B46" s="5">
@@ -22761,7 +22036,6 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="B47" s="5">
@@ -22783,7 +22057,6 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="B48" s="5">
@@ -22805,7 +22078,6 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="F49" s="2">
@@ -22815,7 +22087,6 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="F50" s="2">
@@ -22825,7 +22096,6 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="F51" s="2">
@@ -22835,7 +22105,6 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="F52" s="2">
@@ -22845,7 +22114,6 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="F53" s="2">
@@ -22855,7 +22123,6 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="F54" s="2">
@@ -22874,7 +22141,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22887,18 +22154,17 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <f>dates.dates!B2</f>
         <v>45901</v>
       </c>
       <c r="D2">
@@ -22908,7 +22174,6 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <f>dates.dates!B3</f>
         <v>45931</v>
       </c>
       <c r="B3" s="5">
@@ -22924,7 +22189,6 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <f>dates.dates!B4</f>
         <v>45962</v>
       </c>
       <c r="B4" s="5">
@@ -22940,7 +22204,6 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f>dates.dates!B5</f>
         <v>45992</v>
       </c>
       <c r="B5" s="5">
@@ -22956,7 +22219,6 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f>dates.dates!B6</f>
         <v>46023</v>
       </c>
       <c r="B6" s="5">
@@ -22972,7 +22234,6 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f>dates.dates!B7</f>
         <v>46054</v>
       </c>
       <c r="B7" s="5">
@@ -22988,7 +22249,6 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f>dates.dates!B8</f>
         <v>46082</v>
       </c>
       <c r="B8" s="5">
@@ -23004,7 +22264,6 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f>dates.dates!B9</f>
         <v>46113</v>
       </c>
       <c r="B9" s="5">
@@ -23020,7 +22279,6 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f>dates.dates!B10</f>
         <v>46143</v>
       </c>
       <c r="B10" s="5">
@@ -23036,7 +22294,6 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f>dates.dates!B11</f>
         <v>46174</v>
       </c>
       <c r="B11" s="5">
@@ -23052,7 +22309,6 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f>dates.dates!B12</f>
         <v>46204</v>
       </c>
       <c r="B12" s="5">
@@ -23068,7 +22324,6 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f>dates.dates!B13</f>
         <v>46235</v>
       </c>
       <c r="B13" s="5">
@@ -23084,7 +22339,6 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f>dates.dates!B14</f>
         <v>46266</v>
       </c>
       <c r="B14" s="5">
@@ -23100,7 +22354,6 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f>dates.dates!B15</f>
         <v>46296</v>
       </c>
       <c r="B15" s="5">
@@ -23116,7 +22369,6 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f>dates.dates!B16</f>
         <v>46327</v>
       </c>
       <c r="B16" s="5">
@@ -23132,7 +22384,6 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f>dates.dates!B17</f>
         <v>46357</v>
       </c>
       <c r="B17" s="5">
@@ -23148,7 +22399,6 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f>dates.dates!B18</f>
         <v>46388</v>
       </c>
       <c r="B18" s="5">
@@ -23164,7 +22414,6 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>dates.dates!B19</f>
         <v>46419</v>
       </c>
       <c r="B19" s="5">
@@ -23180,7 +22429,6 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f>dates.dates!B20</f>
         <v>46447</v>
       </c>
       <c r="B20" s="5">
@@ -23196,7 +22444,6 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f>dates.dates!B21</f>
         <v>46478</v>
       </c>
       <c r="B21" s="5">
@@ -23212,7 +22459,6 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f>dates.dates!B22</f>
         <v>46508</v>
       </c>
       <c r="B22" s="5">
@@ -23228,7 +22474,6 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f>dates.dates!B23</f>
         <v>46539</v>
       </c>
       <c r="B23" s="5">
@@ -23244,7 +22489,6 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f>dates.dates!B24</f>
         <v>46569</v>
       </c>
       <c r="B24" s="5">
@@ -23260,7 +22504,6 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f>dates.dates!B25</f>
         <v>46600</v>
       </c>
       <c r="B25" s="5">
@@ -23276,7 +22519,6 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f>dates.dates!B26</f>
         <v>46631</v>
       </c>
       <c r="B26" s="5">
@@ -23292,7 +22534,6 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f>dates.dates!B27</f>
         <v>46661</v>
       </c>
       <c r="B27" s="5">
@@ -23308,7 +22549,6 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f>dates.dates!B28</f>
         <v>46692</v>
       </c>
       <c r="B28" s="5">
@@ -23324,7 +22564,6 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f>dates.dates!B29</f>
         <v>46722</v>
       </c>
       <c r="B29" s="5">
@@ -23340,7 +22579,6 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f>dates.dates!B30</f>
         <v>46753</v>
       </c>
       <c r="B30" s="5">
@@ -23356,7 +22594,6 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f>dates.dates!B31</f>
         <v>46784</v>
       </c>
       <c r="B31" s="5">
@@ -23372,7 +22609,6 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f>dates.dates!B32</f>
         <v>46813</v>
       </c>
       <c r="B32" s="5">
@@ -23388,7 +22624,6 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f>dates.dates!B33</f>
         <v>46844</v>
       </c>
       <c r="B33" s="5">
@@ -23404,7 +22639,6 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f>dates.dates!B34</f>
         <v>46874</v>
       </c>
       <c r="B34" s="5">
@@ -23420,7 +22654,6 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f>dates.dates!B35</f>
         <v>46905</v>
       </c>
       <c r="B35" s="5">
@@ -23436,7 +22669,6 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f>dates.dates!B36</f>
         <v>46935</v>
       </c>
       <c r="B36" s="5">
@@ -23452,7 +22684,6 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f>dates.dates!B37</f>
         <v>46966</v>
       </c>
       <c r="B37" s="5">
@@ -23468,7 +22699,6 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f>dates.dates!B38</f>
         <v>46997</v>
       </c>
       <c r="B38" s="5">
@@ -23484,7 +22714,6 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <f>dates.dates!B39</f>
         <v>47027</v>
       </c>
       <c r="B39" s="5">
@@ -23500,7 +22729,6 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <f>dates.dates!B40</f>
         <v>47058</v>
       </c>
       <c r="B40" s="5">
@@ -23516,7 +22744,6 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <f>dates.dates!B41</f>
         <v>47088</v>
       </c>
       <c r="B41" s="5">
@@ -23532,7 +22759,6 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <f>dates.dates!B42</f>
         <v>47119</v>
       </c>
       <c r="B42" s="5">
@@ -23548,7 +22774,6 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <f>dates.dates!B43</f>
         <v>47150</v>
       </c>
       <c r="B43" s="5">
@@ -23564,7 +22789,6 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <f>dates.dates!B44</f>
         <v>47178</v>
       </c>
       <c r="B44" s="5">
@@ -23580,7 +22804,6 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <f>dates.dates!B45</f>
         <v>47209</v>
       </c>
       <c r="B45" s="5">
@@ -23596,7 +22819,6 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <f>dates.dates!B46</f>
         <v>47239</v>
       </c>
       <c r="B46" s="5">
@@ -23612,7 +22834,6 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <f>dates.dates!B47</f>
         <v>47270</v>
       </c>
       <c r="B47" s="5">
@@ -23628,7 +22849,6 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <f>dates.dates!B48</f>
         <v>47300</v>
       </c>
       <c r="B48" s="5">
@@ -23644,7 +22864,6 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <f>dates.dates!B49</f>
         <v>47331</v>
       </c>
       <c r="B49" s="5">
@@ -23660,7 +22879,6 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <f>dates.dates!B50</f>
         <v>47362</v>
       </c>
       <c r="B50" s="5">
@@ -23676,7 +22894,6 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <f>dates.dates!B51</f>
         <v>47392</v>
       </c>
       <c r="B51" s="5">
@@ -23692,7 +22909,6 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <f>dates.dates!B52</f>
         <v>47423</v>
       </c>
       <c r="B52" s="5">
@@ -23708,7 +22924,6 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <f>dates.dates!B53</f>
         <v>47453</v>
       </c>
       <c r="B53" s="5">
@@ -23724,7 +22939,6 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <f>dates.dates!B54</f>
         <v>47484</v>
       </c>
       <c r="D54">
